--- a/files/sampletestexcel.xlsx
+++ b/files/sampletestexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7991c32594cea201/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{539837E6-43A9-4D4C-985D-E814E9D34E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E0660D7-7803-43BE-AB8B-0D205E081E77}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{539837E6-43A9-4D4C-985D-E814E9D34E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9883464-5AC6-476C-8A3F-ADBD72EA3325}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9DD1B3A-1860-47AD-816F-19D1E8581574}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{D9DD1B3A-1860-47AD-816F-19D1E8581574}"/>
   </bookViews>
   <sheets>
     <sheet name="sampletest" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>ddtest</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>dasdasd</t>
+  </si>
+  <si>
+    <t>Jacki</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>dasazzzzzdasd</t>
   </si>
 </sst>
 </file>
@@ -410,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A83B0-E6ED-46DF-AB1E-33E340A92265}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +472,40 @@
         <v>12312312</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25569</v>
+      </c>
+      <c r="E3">
+        <v>123111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>21916</v>
+      </c>
+      <c r="E4">
+        <v>666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
